--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -43,36 +43,33 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -85,88 +82,91 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -536,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,16 +676,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.815068493150685</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L5">
         <v>54</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5">
-        <v>0.8916666666666667</v>
-      </c>
-      <c r="L5">
-        <v>107</v>
-      </c>
       <c r="M5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5932203389830508</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.856396866840731</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L8">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.544973544973545</v>
+        <v>0.5523255813953488</v>
       </c>
       <c r="C9">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="D9">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.851063829787234</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -955,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5251937984496124</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C10">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5033557046979866</v>
+        <v>0.5132275132275133</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4901960784313725</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7875</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4727272727272727</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,31 +1123,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>0.78125</v>
+      </c>
+      <c r="L13">
+        <v>125</v>
+      </c>
+      <c r="M13">
+        <v>125</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>35</v>
-      </c>
-      <c r="K13">
-        <v>0.7830188679245284</v>
-      </c>
-      <c r="L13">
-        <v>83</v>
-      </c>
-      <c r="M13">
-        <v>83</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4533333333333333</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3222222222222222</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2698412698412698</v>
+        <v>0.1501340482573726</v>
       </c>
       <c r="C16">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7674418604651163</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,13 +1305,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1689008042895442</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1355,63 +1355,87 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01774193548387097</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F18">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3045</v>
+        <v>3050</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
+        <v>27</v>
+      </c>
+      <c r="M18">
+        <v>27</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.01452671040299906</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
         <v>40</v>
       </c>
-      <c r="K18">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L18">
-        <v>26</v>
-      </c>
-      <c r="M18">
-        <v>26</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="E19">
+        <v>0.23</v>
+      </c>
+      <c r="F19">
+        <v>0.77</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2103</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.675</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1475,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6411764705882353</v>
+        <v>0.62</v>
       </c>
       <c r="L22">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1501,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6276595744680851</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1553,21 +1577,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1579,47 +1603,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5898305084745763</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="L26">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5690376569037657</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L27">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1631,21 +1655,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5428571428571428</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.4719101123595505</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,15 +1707,15 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.3698630136986301</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L30">
         <v>27</v>
@@ -1709,59 +1733,33 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.3333333333333333</v>
+        <v>0.01349231251961092</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32">
-        <v>0.00847723704866562</v>
-      </c>
-      <c r="L32">
-        <v>27</v>
-      </c>
-      <c r="M32">
-        <v>43</v>
-      </c>
-      <c r="N32">
-        <v>0.63</v>
-      </c>
-      <c r="O32">
-        <v>0.37</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>3158</v>
+        <v>3144</v>
       </c>
     </row>
   </sheetData>
